--- a/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Video_5_ChloeTing.txt.xlsx
+++ b/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Video_5_ChloeTing.txt.xlsx
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>99.99806880950928</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -608,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>96.4703381061554</v>
+        <v>57.00954794883728</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -619,10 +619,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>99.99991655349731</v>
+        <v>98.27585816383362</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>99.99932050704956</v>
+        <v>99.99991655349731</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -663,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>99.99967813491821</v>
+        <v>99.99948740005493</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>70.32998204231262</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>99.99971389770508</v>
+        <v>99.99967813491821</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>99.93721842765808</v>
+        <v>99.99905824661255</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>99.99890327453613</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>99.80869293212891</v>
+        <v>99.99946355819702</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>99.9864935874939</v>
+        <v>99.90358352661133</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>99.99122619628906</v>
+        <v>98.4968900680542</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>99.99938011169434</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -883,10 +883,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>99.01245832443237</v>
+        <v>99.99982118606567</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>99.9171257019043</v>
+        <v>99.99912977218628</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>99.99998807907104</v>
+        <v>99.73229765892029</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>99.99996423721313</v>
+        <v>99.39715266227722</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -941,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>99.99986886978149</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>99.87691044807434</v>
+        <v>67.62106418609619</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>99.99996423721313</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>99.95148181915283</v>
+        <v>63.95573616027832</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>99.76863861083984</v>
+        <v>99.99816417694092</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>94.2932665348053</v>
+        <v>99.99972581863403</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>99.99997615814209</v>
+        <v>99.99977350234985</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>99.99998807907104</v>
+        <v>99.9996542930603</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>99.99833106994629</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>99.99768733978271</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>99.28327798843384</v>
+        <v>99.97274279594421</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1161,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>99.99997615814209</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1172,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>99.97361302375793</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>98.52377772331238</v>
+        <v>98.32385778427124</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>100</v>
+        <v>99.6665894985199</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1238,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>99.99988079071045</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>99.99256134033203</v>
+        <v>99.87700581550598</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>99.99654293060303</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <v>99.9991774559021</v>
+        <v>99.99943971633911</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>99.9995231628418</v>
+        <v>99.9966025352478</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,10 +1312,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>99.67731833457947</v>
+        <v>91.51563048362732</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>99.99997615814209</v>
+        <v>99.99386072158813</v>
       </c>
     </row>
     <row r="71" spans="1:4">
